--- a/shoes.xlsx
+++ b/shoes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\projects\zalandoPriceChecker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\PythonProjects\bestSizeChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54D986D-9DE5-48B2-AB55-E0B9391CC3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5BBE5-9EFC-475F-8868-C011A9DD39CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>sku</t>
   </si>
@@ -46,7 +46,79 @@
     <t>DV7072-300</t>
   </si>
   <si>
-    <t>554725-371</t>
+    <t>554724-091</t>
+  </si>
+  <si>
+    <t>DR0143-101</t>
+  </si>
+  <si>
+    <t>CT2302-100</t>
+  </si>
+  <si>
+    <t>CI0919-113</t>
+  </si>
+  <si>
+    <t>DH2973-100</t>
+  </si>
+  <si>
+    <t>DC0774-800</t>
+  </si>
+  <si>
+    <t>DC0774-131</t>
+  </si>
+  <si>
+    <t>554724-660</t>
+  </si>
+  <si>
+    <t>554725-660</t>
+  </si>
+  <si>
+    <t>DN4346-100</t>
+  </si>
+  <si>
+    <t>DN4045-001</t>
+  </si>
+  <si>
+    <t>DJ6563-038</t>
+  </si>
+  <si>
+    <t>554724-371</t>
+  </si>
+  <si>
+    <t>555088-161</t>
+  </si>
+  <si>
+    <t>DD1869-600</t>
+  </si>
+  <si>
+    <t>DH4402-100</t>
+  </si>
+  <si>
+    <t>476.1</t>
+  </si>
+  <si>
+    <t>494.1</t>
+  </si>
+  <si>
+    <t>404.1</t>
+  </si>
+  <si>
+    <t>611.1</t>
+  </si>
+  <si>
+    <t>449.1</t>
+  </si>
+  <si>
+    <t>386.1</t>
+  </si>
+  <si>
+    <t>422.1</t>
+  </si>
+  <si>
+    <t>539.1</t>
+  </si>
+  <si>
+    <t>719.1</t>
   </si>
 </sst>
 </file>
@@ -364,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF99BE5-24C4-4E81-80E3-2844EE1694A9}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -386,12 +458,138 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/shoes.xlsx
+++ b/shoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\PythonProjects\bestSizeChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5BBE5-9EFC-475F-8868-C011A9DD39CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC172F8-F8EA-4A20-949A-F6CE08028F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>sku</t>
   </si>
@@ -43,82 +43,70 @@
     <t>price</t>
   </si>
   <si>
-    <t>DV7072-300</t>
-  </si>
-  <si>
-    <t>554724-091</t>
-  </si>
-  <si>
-    <t>DR0143-101</t>
-  </si>
-  <si>
-    <t>CT2302-100</t>
-  </si>
-  <si>
-    <t>CI0919-113</t>
-  </si>
-  <si>
-    <t>DH2973-100</t>
-  </si>
-  <si>
-    <t>DC0774-800</t>
-  </si>
-  <si>
-    <t>DC0774-131</t>
-  </si>
-  <si>
-    <t>554724-660</t>
-  </si>
-  <si>
-    <t>554725-660</t>
-  </si>
-  <si>
-    <t>DN4346-100</t>
-  </si>
-  <si>
-    <t>DN4045-001</t>
-  </si>
-  <si>
-    <t>DJ6563-038</t>
-  </si>
-  <si>
-    <t>554724-371</t>
-  </si>
-  <si>
-    <t>555088-161</t>
-  </si>
-  <si>
-    <t>DD1869-600</t>
-  </si>
-  <si>
-    <t>DH4402-100</t>
-  </si>
-  <si>
     <t>476.1</t>
   </si>
   <si>
-    <t>494.1</t>
-  </si>
-  <si>
     <t>404.1</t>
   </si>
   <si>
-    <t>611.1</t>
-  </si>
-  <si>
     <t>449.1</t>
   </si>
   <si>
     <t>386.1</t>
   </si>
   <si>
-    <t>422.1</t>
-  </si>
-  <si>
-    <t>539.1</t>
-  </si>
-  <si>
-    <t>719.1</t>
+    <t>554724-130</t>
+  </si>
+  <si>
+    <t>DA8478-100</t>
+  </si>
+  <si>
+    <t>DD8959-100</t>
+  </si>
+  <si>
+    <t>DH4619-003</t>
+  </si>
+  <si>
+    <t>DC0774-121</t>
+  </si>
+  <si>
+    <t>DJ0341-100</t>
+  </si>
+  <si>
+    <t>553558-130</t>
+  </si>
+  <si>
+    <t>DM8947-100</t>
+  </si>
+  <si>
+    <t>DC7294-200</t>
+  </si>
+  <si>
+    <t>554724-096</t>
+  </si>
+  <si>
+    <t>408452-111</t>
+  </si>
+  <si>
+    <t>DD1503-109</t>
+  </si>
+  <si>
+    <t>485.1</t>
+  </si>
+  <si>
+    <t>377.1</t>
+  </si>
+  <si>
+    <t>629.1</t>
+  </si>
+  <si>
+    <t>440.1</t>
+  </si>
+  <si>
+    <t>521.1</t>
+  </si>
+  <si>
+    <t>584.1</t>
   </si>
 </sst>
 </file>
@@ -436,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF99BE5-24C4-4E81-80E3-2844EE1694A9}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,31 +446,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -490,106 +478,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/shoes.xlsx
+++ b/shoes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\PythonProjects\bestSizeChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC172F8-F8EA-4A20-949A-F6CE08028F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB7816-53DD-4BC6-9F61-DBDF0FE1666C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>sku</t>
   </si>
@@ -43,39 +43,21 @@
     <t>price</t>
   </si>
   <si>
-    <t>476.1</t>
-  </si>
-  <si>
     <t>404.1</t>
   </si>
   <si>
     <t>449.1</t>
   </si>
   <si>
-    <t>386.1</t>
-  </si>
-  <si>
-    <t>554724-130</t>
-  </si>
-  <si>
     <t>DA8478-100</t>
   </si>
   <si>
     <t>DD8959-100</t>
   </si>
   <si>
-    <t>DH4619-003</t>
-  </si>
-  <si>
     <t>DC0774-121</t>
   </si>
   <si>
-    <t>DJ0341-100</t>
-  </si>
-  <si>
-    <t>553558-130</t>
-  </si>
-  <si>
     <t>DM8947-100</t>
   </si>
   <si>
@@ -91,22 +73,37 @@
     <t>DD1503-109</t>
   </si>
   <si>
-    <t>485.1</t>
-  </si>
-  <si>
     <t>377.1</t>
   </si>
   <si>
-    <t>629.1</t>
-  </si>
-  <si>
-    <t>440.1</t>
-  </si>
-  <si>
-    <t>521.1</t>
-  </si>
-  <si>
-    <t>584.1</t>
+    <t>CT2302-100</t>
+  </si>
+  <si>
+    <t>CI0919-113</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>579</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>DH4402-100</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>494.1</t>
   </si>
 </sst>
 </file>
@@ -424,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF99BE5-24C4-4E81-80E3-2844EE1694A9}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,98 +443,90 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
